--- a/Информация о проходах/Истюфеев Алексей Александрович.xlsx
+++ b/Информация о проходах/Истюфеев Алексей Александрович.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-04-16 13:59:54</t>
+          <t>2024-06-27 07:42:42</t>
         </is>
       </c>
     </row>
@@ -471,17 +471,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>КПП производства</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-04-16 14:18:19</t>
+          <t>2024-06-27 12:10:26</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,103 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-04-16 14:18:24</t>
+          <t>2024-06-27 12:53:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Истюфеев Алексей Александрович</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Техник по автоматизированным системам управления производством</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-06-27 16:59:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Истюфеев Алексей Александрович</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Техник по автоматизированным системам управления производством</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-07-02 07:48:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Истюфеев Алексей Александрович</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Техник по автоматизированным системам управления производством</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отдел ИТ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:59:23</t>
         </is>
       </c>
     </row>
